--- a/tabels.xlsx
+++ b/tabels.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:dbsheet="http://web.wps.cn/et/2021/dbsheet">
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="613" uniqueCount="11">
   <si>
     <t>ФИО</t>
   </si>
@@ -57,6 +57,9 @@
   </si>
   <si>
     <t>Роман Александрович Сворин</t>
+  </si>
+  <si>
+    <t>И. И. Иванов</t>
   </si>
 </sst>
 </file>
@@ -772,6 +775,13 @@
 </styleSheet>
 </file>
 
+<file path=xl/customStorage/customStorage.xml><?xml version="1.0" encoding="utf-8"?>
+<customStorage xmlns="https://web.wps.cn/et/2018/main">
+  <book/>
+  <sheets/>
+</customStorage>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -1057,19 +1067,19 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AF11"/>
+  <dimension ref="A1:BP15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10:AF10"/>
+      <selection activeCell="AI13" sqref="AI13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="43.7777777777778" customWidth="1"/>
-    <col min="2" max="32" width="10.8888888888889"/>
+    <col min="2" max="68" width="10.8888888888889"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32">
+    <row r="1" spans="1:68">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1166,8 +1176,116 @@
       <c r="AF1" s="2">
         <v>45839</v>
       </c>
+      <c r="AG1" s="2">
+        <v>45840</v>
+      </c>
+      <c r="AH1" s="2">
+        <v>45841</v>
+      </c>
+      <c r="AI1" s="2">
+        <v>45842</v>
+      </c>
+      <c r="AJ1" s="2">
+        <v>45843</v>
+      </c>
+      <c r="AK1" s="2">
+        <v>45844</v>
+      </c>
+      <c r="AL1" s="2">
+        <v>45845</v>
+      </c>
+      <c r="AM1" s="2">
+        <v>45846</v>
+      </c>
+      <c r="AN1" s="2">
+        <v>45847</v>
+      </c>
+      <c r="AO1" s="2">
+        <v>45848</v>
+      </c>
+      <c r="AP1" s="2">
+        <v>45849</v>
+      </c>
+      <c r="AQ1" s="2">
+        <v>45850</v>
+      </c>
+      <c r="AR1" s="2">
+        <v>45851</v>
+      </c>
+      <c r="AS1" s="2">
+        <v>45852</v>
+      </c>
+      <c r="AT1" s="2">
+        <v>45853</v>
+      </c>
+      <c r="AU1" s="2">
+        <v>45854</v>
+      </c>
+      <c r="AV1" s="2">
+        <v>45855</v>
+      </c>
+      <c r="AW1" s="2">
+        <v>45856</v>
+      </c>
+      <c r="AX1" s="2">
+        <v>45857</v>
+      </c>
+      <c r="AY1" s="2">
+        <v>45858</v>
+      </c>
+      <c r="AZ1" s="2">
+        <v>45859</v>
+      </c>
+      <c r="BA1" s="2">
+        <v>45860</v>
+      </c>
+      <c r="BB1" s="2">
+        <v>45861</v>
+      </c>
+      <c r="BC1" s="2">
+        <v>45862</v>
+      </c>
+      <c r="BD1" s="2">
+        <v>45863</v>
+      </c>
+      <c r="BE1" s="2">
+        <v>45864</v>
+      </c>
+      <c r="BF1" s="2">
+        <v>45865</v>
+      </c>
+      <c r="BG1" s="2">
+        <v>45866</v>
+      </c>
+      <c r="BH1" s="2">
+        <v>45867</v>
+      </c>
+      <c r="BI1" s="2">
+        <v>45868</v>
+      </c>
+      <c r="BJ1" s="2">
+        <v>45869</v>
+      </c>
+      <c r="BK1" s="2">
+        <v>45870</v>
+      </c>
+      <c r="BL1" s="2">
+        <v>45871</v>
+      </c>
+      <c r="BM1" s="2">
+        <v>45872</v>
+      </c>
+      <c r="BN1" s="2">
+        <v>45873</v>
+      </c>
+      <c r="BO1" s="2">
+        <v>45874</v>
+      </c>
+      <c r="BP1" s="2">
+        <v>45875</v>
+      </c>
     </row>
-    <row r="2" spans="1:32">
+    <row r="2" spans="1:68">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
@@ -1264,8 +1382,116 @@
       <c r="AF2" s="6" t="s">
         <v>2</v>
       </c>
+      <c r="AG2" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="AH2" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="AI2" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="AJ2" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="AK2" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="AL2" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="AM2" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="AN2" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="AO2" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="AP2" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="AQ2" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="AR2" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="AS2" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="AT2" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="AU2" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="AV2" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="AW2" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="AX2" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="AY2" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="AZ2" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="BA2" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="BB2" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="BC2" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="BD2" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="BE2" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="BF2" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="BG2" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="BH2" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="BI2" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="BJ2" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="BK2" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="BL2" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="BM2" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="BN2" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="BO2" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="BP2" s="6" t="s">
+        <v>2</v>
+      </c>
     </row>
-    <row r="3" spans="1:32">
+    <row r="3" spans="1:68">
       <c r="A3" s="3" t="s">
         <v>3</v>
       </c>
@@ -1362,8 +1588,116 @@
       <c r="AF3" s="6" t="s">
         <v>2</v>
       </c>
+      <c r="AG3" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="AH3" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="AI3" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="AJ3" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="AK3" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="AL3" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="AM3" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="AN3" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="AO3" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="AP3" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="AQ3" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="AR3" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="AS3" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="AT3" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="AU3" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="AV3" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="AW3" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="AX3" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="AY3" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="AZ3" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="BA3" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="BB3" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="BC3" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="BD3" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="BE3" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="BF3" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="BG3" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="BH3" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="BI3" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="BJ3" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="BK3" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="BL3" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="BM3" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="BN3" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="BO3" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="BP3" s="6" t="s">
+        <v>2</v>
+      </c>
     </row>
-    <row r="4" spans="1:32">
+    <row r="4" spans="1:68">
       <c r="A4" s="3" t="s">
         <v>4</v>
       </c>
@@ -1460,8 +1794,116 @@
       <c r="AF4" s="6" t="s">
         <v>2</v>
       </c>
+      <c r="AG4" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="AH4" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="AI4" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="AJ4" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="AK4" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="AL4" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="AM4" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="AN4" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="AO4" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="AP4" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="AQ4" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="AR4" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="AS4" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="AT4" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="AU4" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="AV4" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="AW4" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="AX4" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="AY4" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="AZ4" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="BA4" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="BB4" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="BC4" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="BD4" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="BE4" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="BF4" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="BG4" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="BH4" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="BI4" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="BJ4" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="BK4" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="BL4" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="BM4" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="BN4" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="BO4" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="BP4" s="6" t="s">
+        <v>2</v>
+      </c>
     </row>
-    <row r="5" spans="1:32">
+    <row r="5" spans="1:68">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -1555,11 +1997,119 @@
       <c r="AE5" t="s">
         <v>2</v>
       </c>
-      <c r="AF5" t="s">
+      <c r="AF5" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="AG5" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="AH5" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="AI5" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="AJ5" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="AK5" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="AL5" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="AM5" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="AN5" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="AO5" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="AP5" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="AQ5" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="AR5" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="AS5" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="AT5" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="AU5" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="AV5" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="AW5" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="AX5" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="AY5" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="AZ5" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="BA5" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="BB5" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="BC5" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="BD5" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="BE5" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="BF5" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="BG5" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="BH5" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="BI5" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="BJ5" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="BK5" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="BL5" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="BM5" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="BN5" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="BO5" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="BP5" s="6" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:32">
+    <row r="6" spans="1:68">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -1653,11 +2203,119 @@
       <c r="AE6" t="s">
         <v>2</v>
       </c>
-      <c r="AF6" t="s">
+      <c r="AF6" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="AG6" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="AH6" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="AI6" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="AJ6" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="AK6" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="AL6" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="AM6" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="AN6" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="AO6" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="AP6" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="AQ6" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="AR6" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="AS6" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="AT6" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="AU6" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="AV6" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="AW6" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="AX6" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="AY6" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="AZ6" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="BA6" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="BB6" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="BC6" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="BD6" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="BE6" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="BF6" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="BG6" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="BH6" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="BI6" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="BJ6" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="BK6" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="BL6" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="BM6" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="BN6" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="BO6" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="BP6" s="6" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:32">
+    <row r="7" spans="1:68">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -1751,11 +2409,119 @@
       <c r="AE7" t="s">
         <v>2</v>
       </c>
-      <c r="AF7" t="s">
+      <c r="AF7" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="AG7" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="AH7" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="AI7" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="AJ7" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="AK7" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="AL7" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="AM7" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="AN7" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="AO7" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="AP7" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="AQ7" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="AR7" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="AS7" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="AT7" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="AU7" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="AV7" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="AW7" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="AX7" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="AY7" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="AZ7" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="BA7" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="BB7" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="BC7" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="BD7" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="BE7" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="BF7" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="BG7" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="BH7" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="BI7" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="BJ7" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="BK7" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="BL7" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="BM7" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="BN7" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="BO7" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="BP7" s="6" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:32">
+    <row r="8" spans="1:68">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -1849,11 +2615,119 @@
       <c r="AE8" t="s">
         <v>2</v>
       </c>
-      <c r="AF8" t="s">
+      <c r="AF8" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="AG8" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="AH8" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="AI8" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="AJ8" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="AK8" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="AL8" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="AM8" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="AN8" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="AO8" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="AP8" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="AQ8" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="AR8" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="AS8" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="AT8" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="AU8" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="AV8" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="AW8" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="AX8" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="AY8" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="AZ8" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="BA8" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="BB8" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="BC8" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="BD8" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="BE8" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="BF8" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="BG8" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="BH8" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="BI8" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="BJ8" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="BK8" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="BL8" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="BM8" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="BN8" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="BO8" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="BP8" s="6" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:32">
+    <row r="9" spans="1:68">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -1947,15 +2821,519 @@
       <c r="AE9" t="s">
         <v>2</v>
       </c>
-      <c r="AF9" t="s">
+      <c r="AF9" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="AG9" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="AH9" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="AI9" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="AJ9" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="AK9" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="AL9" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="AM9" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="AN9" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="AO9" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="AP9" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="AQ9" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="AR9" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="AS9" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="AT9" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="AU9" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="AV9" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="AW9" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="AX9" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="AY9" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="AZ9" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="BA9" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="BB9" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="BC9" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="BD9" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="BE9" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="BF9" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="BG9" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="BH9" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="BI9" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="BJ9" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="BK9" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="BL9" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="BM9" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="BN9" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="BO9" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="BP9" s="6" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:1">
-      <c r="A10" s="4"/>
+    <row r="10" spans="1:68">
+      <c r="A10" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" t="s">
+        <v>2</v>
+      </c>
+      <c r="C10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D10" t="s">
+        <v>2</v>
+      </c>
+      <c r="E10" t="s">
+        <v>2</v>
+      </c>
+      <c r="F10" t="s">
+        <v>2</v>
+      </c>
+      <c r="G10" t="s">
+        <v>2</v>
+      </c>
+      <c r="H10" t="s">
+        <v>2</v>
+      </c>
+      <c r="I10" t="s">
+        <v>2</v>
+      </c>
+      <c r="J10" t="s">
+        <v>2</v>
+      </c>
+      <c r="K10" t="s">
+        <v>2</v>
+      </c>
+      <c r="L10" t="s">
+        <v>2</v>
+      </c>
+      <c r="M10" t="s">
+        <v>2</v>
+      </c>
+      <c r="N10" t="s">
+        <v>2</v>
+      </c>
+      <c r="O10" t="s">
+        <v>2</v>
+      </c>
+      <c r="P10" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>2</v>
+      </c>
+      <c r="R10" t="s">
+        <v>2</v>
+      </c>
+      <c r="S10" t="s">
+        <v>2</v>
+      </c>
+      <c r="T10" t="s">
+        <v>2</v>
+      </c>
+      <c r="U10" t="s">
+        <v>2</v>
+      </c>
+      <c r="V10" t="s">
+        <v>2</v>
+      </c>
+      <c r="W10" t="s">
+        <v>2</v>
+      </c>
+      <c r="X10" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z10" t="s">
+        <v>2</v>
+      </c>
+      <c r="AA10" t="s">
+        <v>2</v>
+      </c>
+      <c r="AB10" t="s">
+        <v>2</v>
+      </c>
+      <c r="AC10" t="s">
+        <v>2</v>
+      </c>
+      <c r="AD10" t="s">
+        <v>2</v>
+      </c>
+      <c r="AE10" t="s">
+        <v>2</v>
+      </c>
+      <c r="AF10" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="AG10" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="AH10" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="AI10" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="AJ10" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="AK10" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="AL10" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="AM10" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="AN10" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="AO10" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="AP10" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="AQ10" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="AR10" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="AS10" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="AT10" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="AU10" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="AV10" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="AW10" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="AX10" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="AY10" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="AZ10" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="BA10" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="BB10" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="BC10" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="BD10" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="BE10" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="BF10" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="BG10" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="BH10" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="BI10" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="BJ10" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="BK10" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="BL10" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="BM10" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="BN10" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="BO10" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="BP10" s="6" t="s">
+        <v>2</v>
+      </c>
     </row>
-    <row r="11" spans="1:1">
+    <row r="11" spans="1:68">
       <c r="A11" s="5"/>
+      <c r="AF11" s="6"/>
+      <c r="AG11" s="6"/>
+      <c r="AH11" s="6"/>
+      <c r="AI11" s="6"/>
+      <c r="AJ11" s="6"/>
+      <c r="AK11" s="6"/>
+      <c r="AL11" s="6"/>
+      <c r="AM11" s="6"/>
+      <c r="AN11" s="6"/>
+      <c r="AO11" s="6"/>
+      <c r="AP11" s="6"/>
+      <c r="AQ11" s="6"/>
+      <c r="AR11" s="6"/>
+      <c r="AS11" s="6"/>
+      <c r="AT11" s="6"/>
+      <c r="AU11" s="6"/>
+      <c r="AV11" s="6"/>
+      <c r="AW11" s="6"/>
+      <c r="AX11" s="6"/>
+      <c r="AY11" s="6"/>
+      <c r="AZ11" s="6"/>
+      <c r="BA11" s="6"/>
+      <c r="BB11" s="6"/>
+      <c r="BC11" s="6"/>
+      <c r="BD11" s="6"/>
+      <c r="BE11" s="6"/>
+      <c r="BF11" s="6"/>
+      <c r="BG11" s="6"/>
+      <c r="BH11" s="6"/>
+      <c r="BI11" s="6"/>
+      <c r="BJ11" s="6"/>
+      <c r="BK11" s="6"/>
+      <c r="BL11" s="6"/>
+      <c r="BM11" s="6"/>
+      <c r="BN11" s="6"/>
+      <c r="BO11" s="6"/>
+      <c r="BP11" s="6"/>
+    </row>
+    <row r="12" spans="32:68">
+      <c r="AF12" s="6"/>
+      <c r="AG12" s="6"/>
+      <c r="AH12" s="6"/>
+      <c r="AI12" s="6"/>
+      <c r="AJ12" s="6"/>
+      <c r="AK12" s="6"/>
+      <c r="AL12" s="6"/>
+      <c r="AM12" s="6"/>
+      <c r="AN12" s="6"/>
+      <c r="AO12" s="6"/>
+      <c r="AP12" s="6"/>
+      <c r="AQ12" s="6"/>
+      <c r="AR12" s="6"/>
+      <c r="AS12" s="6"/>
+      <c r="AT12" s="6"/>
+      <c r="AU12" s="6"/>
+      <c r="AV12" s="6"/>
+      <c r="AW12" s="6"/>
+      <c r="AX12" s="6"/>
+      <c r="AY12" s="6"/>
+      <c r="AZ12" s="6"/>
+      <c r="BA12" s="6"/>
+      <c r="BB12" s="6"/>
+      <c r="BC12" s="6"/>
+      <c r="BD12" s="6"/>
+      <c r="BE12" s="6"/>
+      <c r="BF12" s="6"/>
+      <c r="BG12" s="6"/>
+      <c r="BH12" s="6"/>
+      <c r="BI12" s="6"/>
+      <c r="BJ12" s="6"/>
+      <c r="BK12" s="6"/>
+      <c r="BL12" s="6"/>
+      <c r="BM12" s="6"/>
+      <c r="BN12" s="6"/>
+      <c r="BO12" s="6"/>
+      <c r="BP12" s="6"/>
+    </row>
+    <row r="13" spans="32:68">
+      <c r="AF13" s="6"/>
+      <c r="AG13" s="6"/>
+      <c r="AH13" s="6"/>
+      <c r="AI13" s="6"/>
+      <c r="AJ13" s="6"/>
+      <c r="AK13" s="6"/>
+      <c r="AL13" s="6"/>
+      <c r="AM13" s="6"/>
+      <c r="AN13" s="6"/>
+      <c r="AO13" s="6"/>
+      <c r="AP13" s="6"/>
+      <c r="AQ13" s="6"/>
+      <c r="AR13" s="6"/>
+      <c r="AS13" s="6"/>
+      <c r="AT13" s="6"/>
+      <c r="AU13" s="6"/>
+      <c r="AV13" s="6"/>
+      <c r="AW13" s="6"/>
+      <c r="AX13" s="6"/>
+      <c r="AY13" s="6"/>
+      <c r="AZ13" s="6"/>
+      <c r="BA13" s="6"/>
+      <c r="BB13" s="6"/>
+      <c r="BC13" s="6"/>
+      <c r="BD13" s="6"/>
+      <c r="BE13" s="6"/>
+      <c r="BF13" s="6"/>
+      <c r="BG13" s="6"/>
+      <c r="BH13" s="6"/>
+      <c r="BI13" s="6"/>
+      <c r="BJ13" s="6"/>
+      <c r="BK13" s="6"/>
+      <c r="BL13" s="6"/>
+      <c r="BM13" s="6"/>
+      <c r="BN13" s="6"/>
+      <c r="BO13" s="6"/>
+      <c r="BP13" s="6"/>
+    </row>
+    <row r="14" spans="32:68">
+      <c r="AF14" s="6"/>
+      <c r="AG14" s="6"/>
+      <c r="AH14" s="6"/>
+      <c r="AI14" s="6"/>
+      <c r="AJ14" s="6"/>
+      <c r="AK14" s="6"/>
+      <c r="AL14" s="6"/>
+      <c r="AM14" s="6"/>
+      <c r="AN14" s="6"/>
+      <c r="AO14" s="6"/>
+      <c r="AP14" s="6"/>
+      <c r="AQ14" s="6"/>
+      <c r="AR14" s="6"/>
+      <c r="AS14" s="6"/>
+      <c r="AT14" s="6"/>
+      <c r="AU14" s="6"/>
+      <c r="AV14" s="6"/>
+      <c r="AW14" s="6"/>
+      <c r="AX14" s="6"/>
+      <c r="AY14" s="6"/>
+      <c r="AZ14" s="6"/>
+      <c r="BA14" s="6"/>
+      <c r="BB14" s="6"/>
+      <c r="BC14" s="6"/>
+      <c r="BD14" s="6"/>
+      <c r="BE14" s="6"/>
+      <c r="BF14" s="6"/>
+      <c r="BG14" s="6"/>
+      <c r="BH14" s="6"/>
+      <c r="BI14" s="6"/>
+      <c r="BJ14" s="6"/>
+      <c r="BK14" s="6"/>
+      <c r="BL14" s="6"/>
+      <c r="BM14" s="6"/>
+      <c r="BN14" s="6"/>
+      <c r="BO14" s="6"/>
+      <c r="BP14" s="6"/>
+    </row>
+    <row r="15" spans="32:68">
+      <c r="AF15" s="6"/>
+      <c r="AG15" s="6"/>
+      <c r="AH15" s="6"/>
+      <c r="AI15" s="6"/>
+      <c r="AJ15" s="6"/>
+      <c r="AK15" s="6"/>
+      <c r="AL15" s="6"/>
+      <c r="AM15" s="6"/>
+      <c r="AN15" s="6"/>
+      <c r="AO15" s="6"/>
+      <c r="AP15" s="6"/>
+      <c r="AQ15" s="6"/>
+      <c r="AR15" s="6"/>
+      <c r="AS15" s="6"/>
+      <c r="AT15" s="6"/>
+      <c r="AU15" s="6"/>
+      <c r="AV15" s="6"/>
+      <c r="AW15" s="6"/>
+      <c r="AX15" s="6"/>
+      <c r="AY15" s="6"/>
+      <c r="AZ15" s="6"/>
+      <c r="BA15" s="6"/>
+      <c r="BB15" s="6"/>
+      <c r="BC15" s="6"/>
+      <c r="BD15" s="6"/>
+      <c r="BE15" s="6"/>
+      <c r="BF15" s="6"/>
+      <c r="BG15" s="6"/>
+      <c r="BH15" s="6"/>
+      <c r="BI15" s="6"/>
+      <c r="BJ15" s="6"/>
+      <c r="BK15" s="6"/>
+      <c r="BL15" s="6"/>
+      <c r="BM15" s="6"/>
+      <c r="BN15" s="6"/>
+      <c r="BO15" s="6"/>
+      <c r="BP15" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
